--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164460.983563399</v>
+        <v>1158332.226511962</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969144</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10862334.87513262</v>
+        <v>11118767.84681626</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>79.82547003249344</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>177.9780523152906</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>89.63488594114074</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>154.2780473449593</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>47.44688981803825</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>10.86122196860288</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.243503972831695</v>
+        <v>58.02993390906884</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>181.6735210035959</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172151</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>186.9625385917868</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>55.52079624060387</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>126.5388824951718</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1375494785993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.1474991249023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.74133133758728</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105462</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>132.616430926768</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>82.08837997182205</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>18.7084378797738</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1992.424186004858</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2382.56351798067</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2382.56351798067</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.56351798067</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.56351798067</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.424186004858</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
@@ -4409,25 +4409,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4467,22 +4467,22 @@
         <v>903.4321187182926</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>734.4959357903857</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>584.37929637805</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>436.4662027956568</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>289.5762552977465</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>121.589790606025</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>121.589790606025</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1797.459220126683</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1428.496703186272</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1070.231004579521</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>684.4427519812771</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>273.4568471916695</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2514.413177068803</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2305.667535674628</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2305.667535674628</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1974.604648331057</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1621.835993060943</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.370234799863</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>2184.059060190805</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9516006271326</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1103.284553663259</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>848.6000654573724</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W7" t="n">
-        <v>848.6000654573724</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>848.6000654573724</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.6000654573724</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.558046306621</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.59552936621</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,16 +4801,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2348.297218346554</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.297218346554</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="W8" t="n">
-        <v>2348.297218346554</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.297218346554</v>
+        <v>2379.02402606898</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.157886370743</v>
+        <v>2379.02402606898</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.9856847044969</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9856847044969</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1153.725358675601</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>899.0408704697145</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>609.6237004327539</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>381.6341495347366</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6341495347366</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.318139675982</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.35562273557</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>3136.754772526559</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>3136.754772526559</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>2805.691885182988</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>2452.923229912873</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2079.457471651794</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1689.318139675982</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368016</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.908724368016</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.908724368016</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3197.788768583745</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>2824.323010322666</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.044369546818</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>986.3598813409312</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>696.9427113039706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>468.9531604059532</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>248.1605812624231</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756264</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969314</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969314</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487566</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487566</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.378057281679</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990606</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -5992,25 +5992,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,16 +6241,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558404</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630497</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218161</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866303</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>426.0170212122713</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>258.8209219271512</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218161</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2419.77343521839</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2419.77343521839</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.77343521839</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.95543154783337</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.74504007796168</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>222.7020862222412</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>75.37549921168866</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.63391537253441</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951701</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>47.21554925516926</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>58.20633287440184</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>127.7255247667954</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808662.5101618116</v>
+        <v>955716.582215905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808662.5101618117</v>
+        <v>955716.582215905</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955716.582215905</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217535</v>
@@ -26334,10 +26334,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26346,7 +26346,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26355,7 +26355,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598194</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>4.708981578005478e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="C4" t="n">
-        <v>134318.0002618637</v>
-      </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.571207054552</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>7940.571207054552</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26475,13 +26475,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>244843.2449702546</v>
       </c>
       <c r="D6" t="n">
-        <v>244843.2449702545</v>
+        <v>244843.2449702546</v>
       </c>
       <c r="E6" t="n">
-        <v>127826.7722309206</v>
+        <v>-152963.3683077879</v>
       </c>
       <c r="F6" t="n">
-        <v>309899.7520481112</v>
+        <v>354522.0733167576</v>
       </c>
       <c r="G6" t="n">
-        <v>45026.41911129508</v>
+        <v>354522.0733167575</v>
       </c>
       <c r="H6" t="n">
-        <v>354869.4525711143</v>
+        <v>354522.0733167572</v>
       </c>
       <c r="I6" t="n">
-        <v>354869.4525711144</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="J6" t="n">
-        <v>187264.274761132</v>
+        <v>186916.8955067749</v>
       </c>
       <c r="K6" t="n">
-        <v>354869.4525711146</v>
+        <v>354522.0733167576</v>
       </c>
       <c r="L6" t="n">
-        <v>354869.4525711146</v>
+        <v>354522.0733167576</v>
       </c>
       <c r="M6" t="n">
-        <v>307317.1867776996</v>
+        <v>221914.779587831</v>
       </c>
       <c r="N6" t="n">
-        <v>354869.4525711146</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="O6" t="n">
-        <v>272733.6219756634</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="P6" t="n">
-        <v>354869.4525711146</v>
+        <v>354522.0733167576</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26795,25 +26795,25 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.198799748375</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>4.547473508864641e-13</v>
@@ -27020,16 +27020,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697355</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>327.050575709218</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>73.06719781317145</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>77.6119351574871</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>35.15702120625885</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>257.2696554279947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>76.00532558075611</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>275.3659321525977</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>80.94049690661271</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>245.8017461556303</v>
+        <v>193.0153162193932</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>104.5536331176047</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>446.0127311990649</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
         <v>212.0155798067231</v>
@@ -32238,28 +32238,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226066</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32390,7 +32390,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
@@ -32405,13 +32405,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>303.8786972770466</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427323</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899073</v>
@@ -36059,7 +36059,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998983</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1158332.226511962</v>
+        <v>1161487.145854184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11118767.84681626</v>
+        <v>10862334.87513262</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>79.82547003249344</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>402.7818379626604</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>69.63957399764172</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.9217892780621423</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>154.2780473449593</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>198.9430992003366</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="V7" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>179.4336257791589</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>58.02993390906884</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>275.2645553046536</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174109</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>71.49367430371713</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>55.52079624060387</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>223.8351570852305</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>212.5276795955114</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.9815576456783</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853737</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.07916359105462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.52079624060465</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.616430926768</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218651</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218651</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218651</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>524.4707771085394</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.4321187182926</v>
+        <v>519.0385070447395</v>
       </c>
       <c r="C4" t="n">
-        <v>734.4959357903857</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>584.37929637805</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>436.4662027956568</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>289.5762552977465</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>121.589790606025</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>121.589790606025</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1438.886271953487</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1438.886271953487</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1438.886271953487</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>1149.469101916527</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>921.4795510185094</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>700.6869718749792</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1797.459220126683</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C5" t="n">
-        <v>1428.496703186272</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1070.231004579521</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>684.4427519812771</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>273.4568471916695</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190805</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y5" t="n">
-        <v>2184.059060190805</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,16 +4649,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4725,25 +4725,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,7 +4758,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V7" t="n">
         <v>1463.519709552058</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.424186004858</v>
+        <v>2172.199996424343</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1803.237479483932</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1444.971780877181</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1059.183528278937</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>648.1976234893293</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>232.4928732136182</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2379.02402606898</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2379.02402606898</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2379.02402606898</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2379.02402606898</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2379.02402606898</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,7 +4886,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4962,7 +4962,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5001,13 +5001,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122182</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>149.8982754122182</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>149.8982754122182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1047.261184006861</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>657.6489837069648</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6208,49 +6208,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6694,52 +6694,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.4692863588269</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>73.92737371921412</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.74504007796168</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>158.0952129870313</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.18197579352574</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.63391537253403</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.85445046951701</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194177</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>955716.582215905</v>
+        <v>808662.5101618116</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955716.582215905</v>
+        <v>808662.5101618117</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.582215905</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.582215905</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217535</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26343,19 +26343,19 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598197</v>
       </c>
       <c r="H3" t="n">
-        <v>4.708981578005478e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26426,10 +26426,10 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26478,10 +26478,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869908.5386056651</v>
+        <v>-869908.5386056649</v>
       </c>
       <c r="C6" t="n">
-        <v>244843.2449702546</v>
+        <v>244843.2449702545</v>
       </c>
       <c r="D6" t="n">
         <v>244843.2449702546</v>
       </c>
       <c r="E6" t="n">
-        <v>-152963.3683077879</v>
+        <v>127479.1533011143</v>
       </c>
       <c r="F6" t="n">
-        <v>354522.0733167576</v>
+        <v>309552.1331183049</v>
       </c>
       <c r="G6" t="n">
-        <v>354522.0733167575</v>
+        <v>44991.68118585901</v>
       </c>
       <c r="H6" t="n">
-        <v>354522.0733167572</v>
+        <v>354834.7146456787</v>
       </c>
       <c r="I6" t="n">
-        <v>354522.0733167577</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="J6" t="n">
-        <v>186916.8955067749</v>
+        <v>187229.5368356963</v>
       </c>
       <c r="K6" t="n">
-        <v>354522.0733167576</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="L6" t="n">
-        <v>354522.0733167576</v>
+        <v>354834.7146456788</v>
       </c>
       <c r="M6" t="n">
-        <v>221914.779587831</v>
+        <v>307282.4488522639</v>
       </c>
       <c r="N6" t="n">
-        <v>354522.0733167577</v>
+        <v>354834.714645679</v>
       </c>
       <c r="O6" t="n">
-        <v>354522.0733167577</v>
+        <v>272698.8840502276</v>
       </c>
       <c r="P6" t="n">
-        <v>354522.0733167576</v>
+        <v>354834.7146456789</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26798,22 +26798,22 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>327.050575709218</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.765864810293579</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>35.15702120625885</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>219.8269067191498</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>257.2696554279947</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>52.10215092812538</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>115.0300077039858</v>
       </c>
       <c r="V7" t="n">
-        <v>80.94049690661271</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>121.5849267832465</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>193.0153162193932</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193759</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990649</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420754</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770466</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754087</v>
@@ -35977,7 +35977,7 @@
         <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
